--- a/Untitled spreadsheet.xlsx
+++ b/Untitled spreadsheet.xlsx
@@ -11,24 +11,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">Item </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales </t>
-  </si>
-  <si>
-    <t>Item A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item B </t>
-  </si>
-  <si>
-    <t>Item C</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">Student Name </t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raju </t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Ram</t>
   </si>
 </sst>
 </file>
@@ -63,19 +66,33 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thick">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -83,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -93,6 +110,8 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -310,52 +329,80 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="8.13"/>
+    <col customWidth="1" min="1" max="1" width="13.88"/>
+    <col customWidth="1" min="2" max="2" width="6.25"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" ref="C2:C6" si="1">IF(B2&gt;=40,"pass","fail")</f>
+        <v>pass</v>
+      </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
-        <v>90.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1000.0</v>
+      <c r="B3" s="2">
+        <v>72.0</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
-        <v>150.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1200.0</v>
+      <c r="B4" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
-        <v>250.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1500.0</v>
-      </c>
+      <c r="B5" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>

--- a/Untitled spreadsheet.xlsx
+++ b/Untitled spreadsheet.xlsx
@@ -13,25 +13,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">Student Name </t>
-  </si>
-  <si>
-    <t>Marks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raju </t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Ram</t>
+    <t xml:space="preserve">Employe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attendance </t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simran </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjali </t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
     <border>
       <left style="medium">
@@ -82,25 +82,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -111,7 +97,6 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -322,16 +307,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="13.88"/>
-    <col customWidth="1" min="2" max="2" width="6.25"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -340,74 +320,71 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>45.0</v>
-      </c>
-      <c r="C2" s="3" t="str">
-        <f t="shared" ref="C2:C6" si="1">IF(B2&gt;=40,"pass","fail")</f>
-        <v>pass</v>
+        <v>55000.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>95.0</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f t="shared" ref="D2:D5" si="1">IF(AND(B2&gt;40000,C2&gt;=90%),"Bonus","No Bonus")</f>
+        <v>Bonus</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>72.0</v>
-      </c>
-      <c r="C3" s="3" t="str">
+        <v>65000.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>85.0</v>
+      </c>
+      <c r="D3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>pass</v>
+        <v>Bonus</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>55.0</v>
-      </c>
-      <c r="C4" s="3" t="str">
+        <v>30000.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="D4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>pass</v>
+        <v>No Bonus</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>80.0</v>
-      </c>
-      <c r="C5" s="3" t="str">
+        <v>25000.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="D5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" s="4"/>
+        <v>No Bonus</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Untitled spreadsheet.xlsx
+++ b/Untitled spreadsheet.xlsx
@@ -11,27 +11,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">Employe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attendance </t>
-  </si>
-  <si>
-    <t>Arjun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simran </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anjali </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">Customer Name </t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity </t>
+  </si>
+  <si>
+    <t>Unit Price $</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Isabella Moore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laptop </t>
+  </si>
+  <si>
+    <t>Daniel Davis</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Alex Moore</t>
+  </si>
+  <si>
+    <t>Michael Johnson</t>
+  </si>
+  <si>
+    <t>Table Lamp</t>
+  </si>
+  <si>
+    <t>Home Decor</t>
+  </si>
+  <si>
+    <t>Daniel Johnson</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>Isabella Davis</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
+    <t>Jane Davis</t>
+  </si>
+  <si>
+    <t>Alex Wilson</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
   </si>
 </sst>
 </file>
@@ -47,7 +98,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -96,7 +146,9 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -312,6 +364,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.25"/>
+    <col customWidth="1" min="2" max="2" width="12.25"/>
+    <col customWidth="1" min="3" max="3" width="10.38"/>
+    <col customWidth="1" min="4" max="4" width="8.25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -323,68 +381,154 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>55000.0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>95.0</v>
-      </c>
-      <c r="D2" s="3" t="str">
-        <f t="shared" ref="D2:D5" si="1">IF(AND(B2&gt;40000,C2&gt;=90%),"Bonus","No Bonus")</f>
-        <v>Bonus</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2">
+        <v>81.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>65000.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>85.0</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Bonus</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2">
+        <v>121.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>30000.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>90.0</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>No Bonus</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2">
+        <v>239.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>25000.0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>65.0</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>No Bonus</v>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2">
+        <v>423.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2">
+        <v>348.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2">
+        <v>152.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2">
+        <v>369.0</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D10">
+      <formula1>"1 2 3 4 5 6 7 8 9 10"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>